--- a/random_excels/competition_9.xlsx
+++ b/random_excels/competition_9.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9AD6F84D-09D6-4B1E-A3F6-803FF82A677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BD2FB5E-C54A-4D15-B195-9B70AAB688B4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{9AD6F84D-09D6-4B1E-A3F6-803FF82A677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E8C0D4A-D342-4ADD-AF5D-AD10BE712EDB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6D08E629-076B-4675-ACD5-005D8378C65C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6D08E629-076B-4675-ACD5-005D8378C65C}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">logFile!$A$1:$T$101</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,306 +109,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>23964184.000000</t>
-  </si>
-  <si>
-    <t>23166838.000000</t>
-  </si>
-  <si>
-    <t>23066097.000000</t>
-  </si>
-  <si>
-    <t>23713795.000000</t>
-  </si>
-  <si>
-    <t>24215400.000000</t>
-  </si>
-  <si>
-    <t>25413847.000000</t>
-  </si>
-  <si>
-    <t>24413949.000000</t>
-  </si>
-  <si>
-    <t>22564162.000000</t>
-  </si>
-  <si>
-    <t>24664294.000000</t>
-  </si>
-  <si>
-    <t>24315413.000000</t>
-  </si>
-  <si>
-    <t>23214563.000000</t>
-  </si>
-  <si>
-    <t>23515320.000000</t>
-  </si>
-  <si>
-    <t>22064847.000000</t>
-  </si>
-  <si>
-    <t>25163653.000000</t>
-  </si>
-  <si>
-    <t>22965717.000000</t>
-  </si>
-  <si>
-    <t>25763982.000000</t>
-  </si>
-  <si>
-    <t>21417340.000000</t>
-  </si>
-  <si>
-    <t>24215021.000000</t>
-  </si>
-  <si>
-    <t>25014243.000000</t>
-  </si>
-  <si>
-    <t>23316116.000000</t>
-  </si>
-  <si>
-    <t>23064392.000000</t>
-  </si>
-  <si>
-    <t>24015486.000000</t>
-  </si>
-  <si>
-    <t>24512612.000000</t>
-  </si>
-  <si>
-    <t>23965719.000000</t>
-  </si>
-  <si>
-    <t>24064109.000000</t>
-  </si>
-  <si>
-    <t>24714340.000000</t>
-  </si>
-  <si>
-    <t>23314407.000000</t>
-  </si>
-  <si>
-    <t>25464311.000000</t>
-  </si>
-  <si>
-    <t>22066436.000000</t>
-  </si>
-  <si>
-    <t>23566707.000000</t>
-  </si>
-  <si>
-    <t>22516259.000000</t>
-  </si>
-  <si>
-    <t>24763341.000000</t>
-  </si>
-  <si>
-    <t>22815492.000000</t>
-  </si>
-  <si>
-    <t>22465045.000000</t>
-  </si>
-  <si>
-    <t>24564674.000000</t>
-  </si>
-  <si>
-    <t>22614743.000000</t>
-  </si>
-  <si>
-    <t>26464377.000000</t>
-  </si>
-  <si>
-    <t>24063449.000000</t>
-  </si>
-  <si>
-    <t>25664333.000000</t>
-  </si>
-  <si>
-    <t>24212795.000000</t>
-  </si>
-  <si>
-    <t>23263131.000000</t>
-  </si>
-  <si>
-    <t>24164374.000000</t>
-  </si>
-  <si>
-    <t>24568294.000000</t>
-  </si>
-  <si>
-    <t>26414747.000000</t>
-  </si>
-  <si>
-    <t>24363954.000000</t>
-  </si>
-  <si>
-    <t>22615444.000000</t>
-  </si>
-  <si>
-    <t>27763738.000000</t>
-  </si>
-  <si>
-    <t>23714008.000000</t>
-  </si>
-  <si>
-    <t>23164197.000000</t>
-  </si>
-  <si>
-    <t>24364278.000000</t>
-  </si>
-  <si>
-    <t>24116362.000000</t>
-  </si>
-  <si>
-    <t>25365010.000000</t>
-  </si>
-  <si>
-    <t>23813786.000000</t>
-  </si>
-  <si>
-    <t>25365361.000000</t>
-  </si>
-  <si>
-    <t>25814132.000000</t>
-  </si>
-  <si>
-    <t>24413773.000000</t>
-  </si>
-  <si>
-    <t>26364112.000000</t>
-  </si>
-  <si>
-    <t>26363678.000000</t>
-  </si>
-  <si>
-    <t>24214162.000000</t>
-  </si>
-  <si>
-    <t>22616709.000000</t>
-  </si>
-  <si>
-    <t>26313575.000000</t>
-  </si>
-  <si>
-    <t>23063384.000000</t>
-  </si>
-  <si>
-    <t>23015871.000000</t>
-  </si>
-  <si>
-    <t>23414501.000000</t>
-  </si>
-  <si>
-    <t>24563055.000000</t>
-  </si>
-  <si>
-    <t>26164227.000000</t>
-  </si>
-  <si>
-    <t>24215780.000000</t>
-  </si>
-  <si>
-    <t>22213713.000000</t>
-  </si>
-  <si>
-    <t>22565158.000000</t>
-  </si>
-  <si>
-    <t>24166002.000000</t>
-  </si>
-  <si>
-    <t>23365390.000000</t>
-  </si>
-  <si>
-    <t>22966451.000000</t>
-  </si>
-  <si>
-    <t>23164839.000000</t>
-  </si>
-  <si>
-    <t>23264930.000000</t>
-  </si>
-  <si>
-    <t>22565839.000000</t>
-  </si>
-  <si>
-    <t>23416370.000000</t>
-  </si>
-  <si>
-    <t>23365081.000000</t>
-  </si>
-  <si>
-    <t>24114281.000000</t>
-  </si>
-  <si>
-    <t>23214523.000000</t>
-  </si>
-  <si>
-    <t>22364717.000000</t>
-  </si>
-  <si>
-    <t>24766949.000000</t>
-  </si>
-  <si>
-    <t>23164189.000000</t>
-  </si>
-  <si>
-    <t>21564927.000000</t>
-  </si>
-  <si>
-    <t>24764464.000000</t>
-  </si>
-  <si>
-    <t>22216234.000000</t>
-  </si>
-  <si>
-    <t>23616094.000000</t>
-  </si>
-  <si>
-    <t>22965274.000000</t>
-  </si>
-  <si>
-    <t>22765384.000000</t>
-  </si>
-  <si>
-    <t>25063948.000000</t>
-  </si>
-  <si>
-    <t>23566845.000000</t>
-  </si>
-  <si>
-    <t>22964367.000000</t>
-  </si>
-  <si>
-    <t>22666932.000000</t>
-  </si>
-  <si>
-    <t>25762613.000000</t>
-  </si>
-  <si>
-    <t>23663437.000000</t>
-  </si>
-  <si>
-    <t>25565005.000000</t>
-  </si>
-  <si>
-    <t>23465288.000000</t>
-  </si>
-  <si>
-    <t>23365670.000000</t>
-  </si>
-  <si>
-    <t>23165112.000000</t>
-  </si>
-  <si>
-    <t>22566501.000000</t>
-  </si>
-  <si>
-    <t>23962441.000000</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -436,21 +135,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -458,28 +151,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -499,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B246176E-73EC-46D1-B2EC-70312BDC78BD}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T101"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,9 +585,10 @@
     <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>72</v>
       </c>
@@ -1026,11 +708,11 @@
       <c r="S2">
         <v>1272</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>23964184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>70</v>
       </c>
@@ -1088,11 +770,18 @@
       <c r="S3">
         <v>1328</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>23166838</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <f>MAX(T:T)</f>
+        <v>27763738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>70</v>
       </c>
@@ -1150,11 +839,18 @@
       <c r="S4">
         <v>1378</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>23066097</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <f>MIN(T:T)</f>
+        <v>21417340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80</v>
       </c>
@@ -1212,11 +908,18 @@
       <c r="S5">
         <v>1482</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>23713795</v>
+      </c>
+      <c r="V5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <f>AVERAGEA(T:T)</f>
+        <v>23673113.059405942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>66</v>
       </c>
@@ -1274,11 +977,18 @@
       <c r="S6">
         <v>1141</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>24215400</v>
+      </c>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6">
+        <f>STDEVA(T:T)</f>
+        <v>2671702.2437284733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>72</v>
       </c>
@@ -1336,11 +1046,11 @@
       <c r="S7">
         <v>1229</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>25413847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>75</v>
       </c>
@@ -1398,11 +1108,11 @@
       <c r="S8">
         <v>1300</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>24413949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>64</v>
       </c>
@@ -1460,11 +1170,11 @@
       <c r="S9">
         <v>1606</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>22564162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60</v>
       </c>
@@ -1522,11 +1232,11 @@
       <c r="S10">
         <v>1390</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>24664294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>69</v>
       </c>
@@ -1584,11 +1294,11 @@
       <c r="S11">
         <v>1312</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>24315413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>75</v>
       </c>
@@ -1646,11 +1356,11 @@
       <c r="S12">
         <v>1484</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>23214563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>62</v>
       </c>
@@ -1708,11 +1418,11 @@
       <c r="S13">
         <v>1471</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>23515320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>58</v>
       </c>
@@ -1770,11 +1480,11 @@
       <c r="S14">
         <v>1368</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>22064847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>72</v>
       </c>
@@ -1832,11 +1542,11 @@
       <c r="S15">
         <v>1321</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>25163653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>60</v>
       </c>
@@ -1894,8 +1604,8 @@
       <c r="S16">
         <v>1390</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16">
+        <v>22965717</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1956,8 +1666,8 @@
       <c r="S17">
         <v>1226</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17">
+        <v>25763982</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -2018,8 +1728,8 @@
       <c r="S18">
         <v>1306</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18">
+        <v>21417340</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2080,8 +1790,8 @@
       <c r="S19">
         <v>1231</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <v>24215021</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2142,8 +1852,8 @@
       <c r="S20">
         <v>1385</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20">
+        <v>25014243</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2204,8 +1914,8 @@
       <c r="S21">
         <v>1300</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21">
+        <v>23316116</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2266,8 +1976,8 @@
       <c r="S22">
         <v>1426</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22">
+        <v>23064392</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2328,8 +2038,8 @@
       <c r="S23">
         <v>1281</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23">
+        <v>24015486</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2390,8 +2100,8 @@
       <c r="S24">
         <v>1118</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24">
+        <v>24512612</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2452,8 +2162,8 @@
       <c r="S25">
         <v>1252</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25">
+        <v>23965719</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2514,8 +2224,8 @@
       <c r="S26">
         <v>1256</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26">
+        <v>24064109</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2576,8 +2286,8 @@
       <c r="S27">
         <v>1254</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27">
+        <v>24714340</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2638,8 +2348,8 @@
       <c r="S28">
         <v>1377</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28">
+        <v>23314407</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2700,8 +2410,8 @@
       <c r="S29">
         <v>1197</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29">
+        <v>25464311</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2762,8 +2472,8 @@
       <c r="S30">
         <v>1279</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30">
+        <v>22066436</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2824,8 +2534,8 @@
       <c r="S31">
         <v>1268</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31">
+        <v>23566707</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2886,8 +2596,8 @@
       <c r="S32">
         <v>1392</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32">
+        <v>22516259</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2948,8 +2658,8 @@
       <c r="S33">
         <v>1263</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33">
+        <v>24763341</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -3010,8 +2720,8 @@
       <c r="S34">
         <v>1285</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34">
+        <v>22815492</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3072,8 +2782,8 @@
       <c r="S35">
         <v>1411</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35">
+        <v>22465045</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3134,8 +2844,8 @@
       <c r="S36">
         <v>1232</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36">
+        <v>24564674</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3196,8 +2906,8 @@
       <c r="S37">
         <v>1348</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37">
+        <v>22614743</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3258,8 +2968,8 @@
       <c r="S38">
         <v>1363</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38">
+        <v>26464377</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3320,8 +3030,8 @@
       <c r="S39">
         <v>1436</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39">
+        <v>24063449</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3382,8 +3092,8 @@
       <c r="S40">
         <v>1499</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40">
+        <v>25664333</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3444,8 +3154,8 @@
       <c r="S41">
         <v>1613</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41">
+        <v>24212795</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3506,8 +3216,8 @@
       <c r="S42">
         <v>1392</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42">
+        <v>23263131</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3568,8 +3278,8 @@
       <c r="S43">
         <v>1374</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43">
+        <v>24164374</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3630,8 +3340,8 @@
       <c r="S44">
         <v>1229</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44">
+        <v>24568294</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3692,8 +3402,8 @@
       <c r="S45">
         <v>1229</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45">
+        <v>26414747</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3754,8 +3464,8 @@
       <c r="S46">
         <v>1364</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46">
+        <v>24363954</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3816,8 +3526,8 @@
       <c r="S47">
         <v>1438</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47">
+        <v>22615444</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3878,8 +3588,8 @@
       <c r="S48">
         <v>1242</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48">
+        <v>27763738</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3940,8 +3650,8 @@
       <c r="S49">
         <v>1325</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49">
+        <v>23714008</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -4002,8 +3712,8 @@
       <c r="S50">
         <v>1273</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50">
+        <v>23164197</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4064,8 +3774,8 @@
       <c r="S51">
         <v>1319</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51">
+        <v>24364278</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4126,8 +3836,8 @@
       <c r="S52">
         <v>1261</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52">
+        <v>24116362</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4188,8 +3898,8 @@
       <c r="S53">
         <v>1374</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53">
+        <v>25365010</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4250,8 +3960,8 @@
       <c r="S54">
         <v>1337</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54">
+        <v>23813786</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4312,8 +4022,8 @@
       <c r="S55">
         <v>1295</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55">
+        <v>25365361</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4374,8 +4084,8 @@
       <c r="S56">
         <v>1268</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56">
+        <v>25814132</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4436,8 +4146,8 @@
       <c r="S57">
         <v>1300</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57">
+        <v>24413773</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4498,8 +4208,8 @@
       <c r="S58">
         <v>1250</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58">
+        <v>26364112</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4560,8 +4270,8 @@
       <c r="S59">
         <v>1430</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59">
+        <v>26363678</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4622,8 +4332,8 @@
       <c r="S60">
         <v>1260</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60">
+        <v>24214162</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4684,8 +4394,8 @@
       <c r="S61">
         <v>1389</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61">
+        <v>22616709</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4746,8 +4456,8 @@
       <c r="S62">
         <v>1190</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62">
+        <v>26313575</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4808,8 +4518,8 @@
       <c r="S63">
         <v>1334</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63">
+        <v>23063384</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4870,8 +4580,8 @@
       <c r="S64">
         <v>1404</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64">
+        <v>23015871</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4932,8 +4642,8 @@
       <c r="S65">
         <v>1347</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65">
+        <v>23414501</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4994,8 +4704,8 @@
       <c r="S66">
         <v>1230</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66">
+        <v>24563055</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5056,8 +4766,8 @@
       <c r="S67">
         <v>1311</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67">
+        <v>26164227</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5118,8 +4828,8 @@
       <c r="S68">
         <v>1442</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68">
+        <v>24215780</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5180,8 +4890,8 @@
       <c r="S69">
         <v>1333</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69">
+        <v>22213713</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5242,8 +4952,8 @@
       <c r="S70">
         <v>1516</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70">
+        <v>22565158</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5304,8 +5014,8 @@
       <c r="S71">
         <v>1283</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71">
+        <v>24166002</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5366,8 +5076,8 @@
       <c r="S72">
         <v>1306</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72">
+        <v>23365390</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5428,8 +5138,8 @@
       <c r="S73">
         <v>1273</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73">
+        <v>22966451</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5490,8 +5200,8 @@
       <c r="S74">
         <v>1460</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74">
+        <v>23164839</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5552,8 +5262,8 @@
       <c r="S75">
         <v>1299</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75">
+        <v>23264930</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5614,8 +5324,8 @@
       <c r="S76">
         <v>1553</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76">
+        <v>22565839</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5676,8 +5386,8 @@
       <c r="S77">
         <v>1382</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77">
+        <v>23416370</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5738,8 +5448,8 @@
       <c r="S78">
         <v>1269</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78">
+        <v>23365081</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5800,8 +5510,8 @@
       <c r="S79">
         <v>1456</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79">
+        <v>24114281</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5862,8 +5572,8 @@
       <c r="S80">
         <v>1362</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80">
+        <v>23214523</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5924,8 +5634,8 @@
       <c r="S81">
         <v>1408</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81">
+        <v>22364717</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5986,8 +5696,8 @@
       <c r="S82">
         <v>1221</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82">
+        <v>24766949</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6048,8 +5758,8 @@
       <c r="S83">
         <v>1422</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83">
+        <v>23164189</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6110,8 +5820,8 @@
       <c r="S84">
         <v>1437</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84">
+        <v>21564927</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6172,8 +5882,8 @@
       <c r="S85">
         <v>1265</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85">
+        <v>24764464</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6234,8 +5944,8 @@
       <c r="S86">
         <v>1199</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86">
+        <v>22216234</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6296,8 +6006,8 @@
       <c r="S87">
         <v>1226</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87">
+        <v>23616094</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6358,8 +6068,8 @@
       <c r="S88">
         <v>1472</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88">
+        <v>22965274</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6420,8 +6130,8 @@
       <c r="S89">
         <v>1322</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89">
+        <v>22765384</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6482,8 +6192,8 @@
       <c r="S90">
         <v>1376</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90">
+        <v>25063948</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6544,8 +6254,8 @@
       <c r="S91">
         <v>1295</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91">
+        <v>23566845</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6606,8 +6316,8 @@
       <c r="S92">
         <v>1511</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92">
+        <v>22964367</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6668,8 +6378,8 @@
       <c r="S93">
         <v>1534</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93">
+        <v>22666932</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6730,8 +6440,8 @@
       <c r="S94">
         <v>1296</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94">
+        <v>25762613</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6792,8 +6502,8 @@
       <c r="S95">
         <v>1290</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95">
+        <v>23663437</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6854,8 +6564,8 @@
       <c r="S96">
         <v>1368</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96">
+        <v>25565005</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6916,8 +6626,8 @@
       <c r="S97">
         <v>1257</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97">
+        <v>23465288</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6978,8 +6688,8 @@
       <c r="S98">
         <v>1480</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98">
+        <v>23365670</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7040,8 +6750,8 @@
       <c r="S99">
         <v>1306</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99">
+        <v>23165112</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7102,8 +6812,8 @@
       <c r="S100">
         <v>1278</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100">
+        <v>22566501</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7164,8 +6874,8 @@
       <c r="S101">
         <v>1258</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101">
+        <v>23962441</v>
       </c>
     </row>
   </sheetData>
@@ -7173,549 +6883,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F21F8-7E84-463F-AB41-B3F5C032BAA8}">
-  <dimension ref="A1:E100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>23964184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>23166838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>23066097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>23713795</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <f>MAX(A1:A100)</f>
-        <v>27763738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>24215400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5">
-        <f>MIN(A1:A100)</f>
-        <v>21417340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>25413847</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6">
-        <f>AVERAGEA(A1:A100)</f>
-        <v>23909844.190000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>24413949</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7">
-        <f>STDEVA(A1:A100)</f>
-        <v>1221767.4032293675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>22564162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>24664294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>24315413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>23214563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>23515320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>22064847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>25163653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>22965717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>25763982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>21417340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>24215021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>25014243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>23316116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>23064392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>24015486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>24512612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23965719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24064109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>24714340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>23314407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>25464311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>22066436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>23566707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>22516259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>24763341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>22815492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>22465045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>24564674</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>22614743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>26464377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>24063449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>25664333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>24212795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>23263131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>24164374</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>24568294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>26414747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>24363954</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>22615444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>27763738</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>23714008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>23164197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>24364278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>24116362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>25365010</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>23813786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>25365361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>25814132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>24413773</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>26364112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>26363678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>24214162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>22616709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>26313575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>23063384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>23015871</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>23414501</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>24563055</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>26164227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>24215780</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>22213713</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>22565158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>24166002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>23365390</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>22966451</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>23164839</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>23264930</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>22565839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>23416370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>23365081</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>24114281</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>23214523</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>22364717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>24766949</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>23164189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>21564927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>24764464</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>22216234</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>23616094</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>22965274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>22765384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>25063948</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>23566845</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>22964367</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>22666932</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>25762613</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>23663437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>25565005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>23465288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>23365670</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>23165112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>22566501</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>23962441</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
